--- a/biology/Botanique/Tabebuia_heterophylla/Tabebuia_heterophylla.xlsx
+++ b/biology/Botanique/Tabebuia_heterophylla/Tabebuia_heterophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tabebuia heterophylla est un arbre de 15 à 20 mètres de haut, de la famille des Bignoniaceae, originaire des Antilles.
 Connu sous le nom de poirier,  poirier-pays ou poirier blanc aux Antilles françaises, il est proche du Tabebuia pallida, une espèce endémique des Petites Antilles.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bignonia leucoxylon   L.   1838   Sp. Pl. 1: 624 (1753), non Sp. Pl. ed. 2 (1763), non Tabebuia leucoxyla DC. [ 1298 - 3013 ]
 Bignonia pentaphylla   L.   1763   Sp. Pl. ed. 2, 870 [ 1306 - 3013 ]
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire de poirier utilisé aux Antilles, vient de son fruit qui ressemble à une gousse de petits pois, dit en créole poïer, retranscrit poire.
 </t>
@@ -577,11 +593,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre[1] décidu pouvant atteindre 20 m de haut, au tronc crevassé longitudinalement.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre décidu pouvant atteindre 20 m de haut, au tronc crevassé longitudinalement.
 Les feuilles composées digitées sont formées de (3-) 5 folioles, subcoriaces, variables en forme et dimensions, la terminale plus grande que les autres. Chaque foliole a une base obtuse ou arrondie et un apex obtus ou émarginé.
-Les inflorescences terminales sont des panicules souvent réduites à 1 ou 2 grandes fleurs. Le calice tubulaire fait de 7 à 12 mm. La corolle infundibuliforme[2],  de 4-7 cm est largement évasée, rose à mauve, lobée.
+Les inflorescences terminales sont des panicules souvent réduites à 1 ou 2 grandes fleurs. Le calice tubulaire fait de 7 à 12 mm. La corolle infundibuliforme,  de 4-7 cm est largement évasée, rose à mauve, lobée.
 Le fruit est une longue capsule à 2 valves, pendante, linéaire, grêle, de 12-27 × 1 cm, à l'apex atténué. Les graines sont largement ailées. La fructification s'étale sur toute l'année.
 			Jeune arbre à Midway
 			Tronc à l'écorce crevassée
@@ -616,7 +634,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tabebuia heterophylla affectionne les zones sèches et moyennement humides.
 Il est très commun aux Antilles françaises. On le trouve sur toutes les Antilles jusqu'en Floride.
@@ -648,7 +668,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de texture fibreuse est prisé en ébénisterie. Aux Antilles, il servait à la confection des canots, des moulins à manioc, des jantes de roues de charrette.
 Les Tourterelles consomment leurs graines.
